--- a/story_xlsx_files_postpilotiiedits/21.xlsx
+++ b/story_xlsx_files_postpilotiiedits/21.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>storyText</t>
   </si>
@@ -86,38 +86,30 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
-      <t>Senna got nervous about the ring, and he</t>
+      <t>While Alvira was away at the powder room, Senna took out the ring box from his jacket pocket and opened it up.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The ring contained three canary yellow diamonds that had been in his grandmother’s wedding ring. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> slipped off to the bathroom to check to make sure it looked alright.</t>
+      <t>The waiter appeared to take their order, but before Sadie got back, so that Senna could give him the ring.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The ring contained three canary yellow diamonds that had been in his grandmother’s wedding ring. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>After Senna had gotten back to the table, the waiter appeared at their table to take their order.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Senna ordered the oysters with garlic-parmesan sauce, and Alvira ordered the sauteed sea scallops with caramelized apples. </t>
   </si>
   <si>
     <t>“Excellent choices,” the waiter said, and he left.</t>
   </si>
   <si>
-    <t xml:space="preserve">“What a beautiful place, Senna. </t>
+    <t xml:space="preserve">“You’re too sweet, Senna. </t>
   </si>
   <si>
     <t>This is too much just to celebrate the first tomatoes I grew in the garden- really, this is absurd,” Alvira said.</t>
@@ -161,7 +153,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
-      <t>When they had finished eating, S</t>
+      <t>S</t>
     </r>
     <r>
       <rPr>
@@ -169,17 +161,14 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">enna nodded at the waiter who had been watching attentively, and he quickly strode over to place a small, elegant cake topped with the ring in front of Alvira. </t>
+      <t>enna nodded at the waiter to a small cake topped with the ring in front of Alvira, while Senna got down on one knee and asked Alvira to marry him.</t>
     </r>
   </si>
   <si>
-    <t>Her eyes widened in shock when she realized what she was looking at.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senna got down on one knee and said,“Alvira, will you marry me? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I love you, and I will never stop loving you.” </t>
+    <t>Her eyes widened in shock when she realized what was happening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I love you, and I will never stop loving you,” he said. </t>
   </si>
   <si>
     <r>
@@ -188,7 +177,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
-      <t xml:space="preserve">After a few moments with everyone turned and looking at Elvira in expectation, she exclaimed, </t>
+      <t xml:space="preserve">After a few moments of silence with everyone turned and looking at Elvira in expectation, she exclaimed, </t>
     </r>
     <r>
       <rPr>
@@ -1534,7 +1523,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1918,7 +1907,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="61.8" customHeight="1">
+    <row r="25" ht="79.8" customHeight="1">
       <c r="A25" t="s" s="13">
         <v>29</v>
       </c>
@@ -1933,7 +1922,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="79.8" customHeight="1">
+    <row r="26" ht="115.8" customHeight="1">
       <c r="A26" t="s" s="13">
         <v>30</v>
       </c>
@@ -1941,7 +1930,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1963,7 +1952,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="115.8" customHeight="1">
+    <row r="28" ht="97.8" customHeight="1">
       <c r="A28" t="s" s="13">
         <v>32</v>
       </c>
@@ -1978,7 +1967,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="97.8" customHeight="1">
+    <row r="29" ht="223.8" customHeight="1">
       <c r="A29" t="s" s="13">
         <v>33</v>
       </c>
@@ -1993,7 +1982,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="223.8" customHeight="1">
+    <row r="30" ht="364.35" customHeight="1">
       <c r="A30" t="s" s="13">
         <v>34</v>
       </c>
@@ -2022,21 +2011,6 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-    </row>
-    <row r="32" ht="364.35" customHeight="1">
-      <c r="A32" t="s" s="13">
-        <v>36</v>
-      </c>
-      <c r="B32" s="9">
-        <v>4</v>
-      </c>
-      <c r="C32" s="10">
-        <v>4</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files_postpilotiiedits/21.xlsx
+++ b/story_xlsx_files_postpilotiiedits/21.xlsx
@@ -77,7 +77,7 @@
     <t>The waiter brought out some very small menus.</t>
   </si>
   <si>
-    <t>They consisted of a short list of the head chef's carefully selected daily dishes written in a loopy, cursive font unadorned by any mention of prices.</t>
+    <t>They consisted of a short list of the head chef's carefully selected dishes of the day written in a loopy, cursive font unadorned by any mention of prices.</t>
   </si>
   <si>
     <r>
@@ -106,13 +106,13 @@
     <t xml:space="preserve">Senna ordered the oysters with garlic-parmesan sauce, and Alvira ordered the sauteed sea scallops with caramelized apples. </t>
   </si>
   <si>
-    <t>“Excellent choices,” the waiter said, and he left.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“You’re too sweet, Senna. </t>
-  </si>
-  <si>
-    <t>This is too much just to celebrate the first tomatoes I grew in the garden- really, this is absurd,” Alvira said.</t>
+    <t>“Excellent choices,” the waiter said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the waiter left, Alvira said, “You’re too sweet, Senna. </t>
+  </si>
+  <si>
+    <t>This is too much just to celebrate the first tomatoes I grew in the garden- really, this is absurd.”</t>
   </si>
   <si>
     <t xml:space="preserve">Senna laughed and said, “No, those were really the best tomatoes I’ve ever had. </t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">We had to celebrate.” </t>
   </si>
   <si>
-    <t>They talked and laughed as the sun sank below the horizon, lighting up the sky and water, and slowly the glow from the windows was replaced by the chandeliers.</t>
+    <t>They talked and laughed as the sun sank below the horizon, lighting up the sky and water, and slowly the glow from the windows was replaced by the that of chandeliers.</t>
   </si>
   <si>
     <r>
@@ -161,7 +161,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>enna nodded at the waiter to a small cake topped with the ring in front of Alvira, while Senna got down on one knee and asked Alvira to marry him.</t>
+      <t>enna nodded at the waiter, who placed a small cake topped with the ring in front of Alvira, while Senna got down on one knee and asked Alvira to marry him.</t>
     </r>
   </si>
   <si>
@@ -177,7 +177,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
-      <t xml:space="preserve">After a few moments of silence with everyone turned and looking at Elvira in expectation, she exclaimed, </t>
+      <t xml:space="preserve">After a few moments of silence with everyone turned and looking at Alvira in expectation, she exclaimed, </t>
     </r>
     <r>
       <rPr>
